--- a/biology/Médecine/1904_en_santé_et_médecine/1904_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1904_en_santé_et_médecine/1904_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1904_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1904_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1904 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1904_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1904_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,14 +523,16 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">30 janvier : fondation de l'hôpital pour enfants de Montréal.
-Juillet : le pneumologue français Jules Tissot publie l'invention de son spiromètre en circuit fermé[1].
-27 novembre : les usines Meister, Lucius &amp; Co. déposent le brevet de la novocaïne, anesthésique local de synthèse découvert par le chimiste allemand Alfred Einhorn[2],[3]  et introduit l'année suivante par le chirurgien Heinrich Braun[4],[5].
-Le laryngologiste américain Chevalier Jackson (en) perfectionne le bronchoscope de Killian[6] en le munissant d'une ampoule lumineuse et d'un système d'aspiration des corps étrangers[7].
-Fondation de la  United States Society for the Study of Tuberculosis[8], actuelle American Lung Association (en).
-Fondation à Philadelphie de l'American Oncologic Hospital, devenu Fox Chase Cancer Center (en) en 1974 par fusion avec l'Institute for Cancer Research (en)[9].
+Juillet : le pneumologue français Jules Tissot publie l'invention de son spiromètre en circuit fermé.
+27 novembre : les usines Meister, Lucius &amp; Co. déposent le brevet de la novocaïne, anesthésique local de synthèse découvert par le chimiste allemand Alfred Einhorn,  et introduit l'année suivante par le chirurgien Heinrich Braun,.
+Le laryngologiste américain Chevalier Jackson (en) perfectionne le bronchoscope de Killian en le munissant d'une ampoule lumineuse et d'un système d'aspiration des corps étrangers.
+Fondation de la  United States Society for the Study of Tuberculosis, actuelle American Lung Association (en).
+Fondation à Philadelphie de l'American Oncologic Hospital, devenu Fox Chase Cancer Center (en) en 1974 par fusion avec l'Institute for Cancer Research (en).
 </t>
         </is>
       </c>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1904_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1904_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,9 +561,11 @@
           <t>Prix</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Prix Nobel de physiologie ou médecine : Ivan Pavlov, « en reconnaissance de ses travaux sur la physiologie de la digestion, qui ont permis de transformer et d'élargir le savoir sur les aspects essentiels du sujet[10] ».
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Prix Nobel de physiologie ou médecine : Ivan Pavlov, « en reconnaissance de ses travaux sur la physiologie de la digestion, qui ont permis de transformer et d'élargir le savoir sur les aspects essentiels du sujet ».
 Prix Montyon : Justin Jolly</t>
         </is>
       </c>
@@ -560,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1904_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1904_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,24 +594,26 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>8 janvier : Karl Brandt (mort en 1948), médecin personnel de Hitler.
 7 avril : Saïd Mohamed Cheikh (mort en 1970), médecin et homme politique comorien.
 14 mai : Marcel Junod (mort en 1961), médecin suisse.
 3 juin : Charles Drew (mort en 1950), chirurgien américain.
 4 juin : Georges Canguilhem (mort en 1995), philosophe et médecin français.
-19 juin : Antonina Guelin (morte en 1988), médecin et biologiste française d'origine russe[11].
+19 juin : Antonina Guelin (morte en 1988), médecin et biologiste française d'origine russe.
 14 juillet : Louis Rapkine (mort en 1948), biochimiste français d'origine russe.
 2 août : Pierre Mabille (mort en 1952), médecin, anthropologue et écrivain français.
-17 août : Jacques Fournier (mort en 1978), médecin français, spécialiste de médecine tropicale[12].
+17 août : Jacques Fournier (mort en 1978), médecin français, spécialiste de médecine tropicale.
 29 août : Werner Forssmann (mort en 1979), médecin et chirurgien allemand, lauréat du prix Nobel de médecine en 1956.
-1er septembre : Robertson Fotheringham Ogilvie (mort en 1966), pathologiste écossais[13].
-18 septembre : Paul Genaud (date de décès inconnue), médecin français, officier du corps de santé[14],[15].
-23 septembre : Digby Leigh (mort en 1975), anesthésiste britannique[16].
-27 octobre : James Cyriax (mort en 1985), médecin orthopédiste anglais[17].
+1er septembre : Robertson Fotheringham Ogilvie (mort en 1966), pathologiste écossais.
+18 septembre : Paul Genaud (date de décès inconnue), médecin français, officier du corps de santé,.
+23 septembre : Digby Leigh (mort en 1975), anesthésiste britannique.
+27 octobre : James Cyriax (mort en 1985), médecin orthopédiste anglais.
 28 octobre : Maurice Fontaine (mort en 2009), biologiste français.
-2 novembre : Bernard Halpern (mort en 1978), immunologiste et allergologue français[18].
+2 novembre : Bernard Halpern (mort en 1978), immunologiste et allergologue français.
 8 novembre : Robert Degos (mort en 1987), dermatologue français.
 13 novembre : Paul Bucy (mort en 1992), médecin neurologue, neurochirurgien et neuropathologiste américain.
 Date inconnue
@@ -609,7 +627,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1904_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1904_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -627,22 +645,24 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>8 février : Gustave Liétard (né en 1833), médecin français[19].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>8 février : Gustave Liétard (né en 1833), médecin français.
 18 février : Ambroise-Auguste Liébeault (né en  1823), médecin français, spécialiste de l'hypnose et du magnétisme animal.
-3 mai : Émile Duclaux (né en 1840), physicien, biologiste et chimiste français, successeur de Pasteur à la direction de l'institut du même nom[20],[21].
+3 mai : Émile Duclaux (né en 1840), physicien, biologiste et chimiste français, successeur de Pasteur à la direction de l'institut du même nom,.
 7 mai : Émile Dubois (né en 1853), médecin et homme politique français.
 15 mai : Étienne-Jules Marey (né en 1830), médecin et physiologiste français.
 26 mai : Georges Gilles de La Tourette (né en 1857), neurologue français.
 19 juillet : Édouard Isambard (né en 1845), médecin et homme politique français.
-23 juillet : Alphonse-Charles Gayet (né en 1833), chirurgien français[22].
+23 juillet : Alphonse-Charles Gayet (né en 1833), chirurgien français.
 5 août : Karl Weigert (né en 1845), pathologiste allemand.
 8 août : Ladislas-Xavier Gorecki (né en 1846), ophtalmologue français.
 23 septembre : Albert Gombault (né en 1844), neurologue et pathologiste français.
 9 octobre : Antoine Gailleton (né en 1829), médecin français.
 20 octobre : Paul Tillaux (né en 1834), chirurgien et anatomiste français.
-15 décembre : Ernest Lecorché (né en 1830), médecin français[23],[24].</t>
+15 décembre : Ernest Lecorché (né en 1830), médecin français,.</t>
         </is>
       </c>
     </row>
